--- a/templates/EA_Service_Catalog.xlsx
+++ b/templates/EA_Service_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepository\git\Consulting.Project.Tools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129AB54D-359C-4809-AEF8-A16ED225A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BE30D-8E4D-4EC8-9C58-752301E627EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AEBD3FA-89E3-4F44-9891-7789D5DE2D4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AEBD3FA-89E3-4F44-9891-7789D5DE2D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="2" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Low Est. [small]
-(hours, efforts)</t>
-  </si>
-  <si>
     <t>Med Est. [med.]
 (hours, effort)</t>
   </si>
@@ -70,9 +66,6 @@
     <t>Expected Artifacts Produced</t>
   </si>
   <si>
-    <t>Advising</t>
-  </si>
-  <si>
     <t>Architecture Consultation</t>
   </si>
   <si>
@@ -91,9 +84,6 @@
     <t>RFP Preparation</t>
   </si>
   <si>
-    <t>RFP content, RFP requirements</t>
-  </si>
-  <si>
     <t>BRD Review</t>
   </si>
   <si>
@@ -103,39 +93,24 @@
     <t>New Technology Assessment/Opinion Paper</t>
   </si>
   <si>
-    <t>Architecture Opinion, Findings</t>
-  </si>
-  <si>
     <t>Performance Trouble-Shooting</t>
   </si>
   <si>
     <t>Architecture Recommendations, Findings</t>
   </si>
   <si>
-    <t>Proof-of-Concept</t>
-  </si>
-  <si>
     <t>POC design</t>
   </si>
   <si>
-    <t>Architecture Diagrams</t>
-  </si>
-  <si>
     <t>POC implementation, oversight</t>
   </si>
   <si>
     <t>POC implementation, lead (hands-on)</t>
   </si>
   <si>
-    <t>High-Level Design</t>
-  </si>
-  <si>
     <t>HLD, within one domain</t>
   </si>
   <si>
-    <t>HLD, Architecture Diagrams</t>
-  </si>
-  <si>
     <t>HLD, across two or more domains</t>
   </si>
   <si>
@@ -151,13 +126,7 @@
     <t>HLD, major new technology introduction</t>
   </si>
   <si>
-    <t>Low-Level Design</t>
-  </si>
-  <si>
     <t>LLD, within one domain</t>
-  </si>
-  <si>
-    <t>LLD, Architecture Diagrams</t>
   </si>
   <si>
     <t>LLD, across two or more domains</t>
@@ -253,6 +222,37 @@
   </si>
   <si>
     <t>Conduct Hands-on an In-Depth Vendor Evaluation</t>
+  </si>
+  <si>
+    <t>Low Est. [small]
+(hours, effort)</t>
+  </si>
+  <si>
+    <t>Architecture Guidance, Findings</t>
+  </si>
+  <si>
+    <t>Architecture Diagrams, Recommendations</t>
+  </si>
+  <si>
+    <t>RFP content, RFP requirements, Selection Criteria</t>
+  </si>
+  <si>
+    <t>SAD/HLD, Architecture Diagrams</t>
+  </si>
+  <si>
+    <t>LLD Guidance/Review, Architecture Diagrams</t>
+  </si>
+  <si>
+    <t>Low-Level Design (LLD)</t>
+  </si>
+  <si>
+    <t>High-Level Design (HLD)</t>
+  </si>
+  <si>
+    <t>Proof-of-Concept (PoC)</t>
+  </si>
+  <si>
+    <t>Consultation Services</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1F2289-C3ED-48BD-B6E9-F91EA0EDFEA0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
@@ -738,15 +738,15 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDDE09-B20D-4668-8508-18B9F81EF439}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
@@ -818,10 +818,10 @@
         <v>1.01</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>1.02</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8">
         <v>16</v>
@@ -856,7 +856,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>1.03</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8">
         <v>8</v>
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>1.04</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8">
         <v>24</v>
@@ -902,7 +902,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>1.05</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8">
         <v>16</v>
@@ -925,7 +925,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,10 +933,10 @@
         <v>1.06</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -948,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,10 +956,10 @@
         <v>1.07</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -971,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1002,10 +1002,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8">
         <v>24</v>
@@ -1017,7 +1017,7 @@
         <v>96</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,10 @@
         <v>2.02</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8">
         <v>32</v>
@@ -1040,7 +1040,7 @@
         <v>128</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,10 +1048,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8">
         <v>40</v>
@@ -1063,7 +1063,7 @@
         <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -1094,10 +1094,10 @@
         <v>3.01</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" s="8">
         <v>16</v>
@@ -1109,7 +1109,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>3.02</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D20" s="8">
         <v>24</v>
@@ -1132,7 +1132,7 @@
         <v>96</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,10 +1140,10 @@
         <v>3.03</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D21" s="8">
         <v>24</v>
@@ -1155,7 +1155,7 @@
         <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>3.04</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8">
         <v>24</v>
@@ -1178,7 +1178,7 @@
         <v>192</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,10 +1186,10 @@
         <v>3.05</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8">
         <v>24</v>
@@ -1201,7 +1201,7 @@
         <v>192</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>3.06</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8">
         <v>24</v>
@@ -1224,7 +1224,7 @@
         <v>96</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -1255,10 +1255,10 @@
         <v>4.01</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D28" s="8">
         <v>24</v>
@@ -1270,7 +1270,7 @@
         <v>96</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,10 +1278,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8">
         <v>48</v>
@@ -1293,7 +1293,7 @@
         <v>192</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>4.03</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D30" s="8">
         <v>48</v>
@@ -1316,7 +1316,7 @@
         <v>192</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>4.04</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" s="8">
         <v>48</v>
@@ -1339,7 +1339,7 @@
         <v>192</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>4.05</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D32" s="8">
         <v>48</v>
@@ -1362,7 +1362,7 @@
         <v>192</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8">
         <v>48</v>
@@ -1385,7 +1385,7 @@
         <v>192</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -1416,10 +1416,10 @@
         <v>5.01</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1430,10 +1430,10 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1444,10 +1444,10 @@
         <v>5.03</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1458,10 +1458,10 @@
         <v>5.04</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1472,10 +1472,10 @@
         <v>5.05</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>

--- a/templates/EA_Service_Catalog.xlsx
+++ b/templates/EA_Service_Catalog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepository\git\Consulting.Project.Tools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BE30D-8E4D-4EC8-9C58-752301E627EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066DF12C-5A24-4201-AB50-B1CC966154FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AEBD3FA-89E3-4F44-9891-7789D5DE2D4F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Architecture work is ***usually*** estimated in multiples of 8-hour increments</t>
-  </si>
-  <si>
-    <t>As we collect metrics for estimated vs. actual - we will monitor and adjust our estimate ranges. Until then - it may be prudent to add a standard buffer to the estimates (e.g. 20%-25%)</t>
   </si>
   <si>
     <t>Category</t>
@@ -144,8 +141,69 @@
     <t>LLD, major new technology introduction</t>
   </si>
   <si>
+    <t>A.01</t>
+  </si>
+  <si>
+    <t>A.02</t>
+  </si>
+  <si>
+    <t>A.03</t>
+  </si>
+  <si>
+    <t>RFP Support</t>
+  </si>
+  <si>
+    <t>RPF Support</t>
+  </si>
+  <si>
+    <t>Solution Research - Identify Potential Vendors</t>
+  </si>
+  <si>
+    <t>Evaluate Vendors - Identify Candidates Shortlist</t>
+  </si>
+  <si>
+    <t>Prepare Detailed RFP Evaluation Questions</t>
+  </si>
+  <si>
+    <t>Review Vendor RFP Responses</t>
+  </si>
+  <si>
+    <t>Conduct Hands-on an In-Depth Vendor Evaluation</t>
+  </si>
+  <si>
+    <t>Low Est. [small]
+(hours, effort)</t>
+  </si>
+  <si>
+    <t>Architecture Guidance, Findings</t>
+  </si>
+  <si>
+    <t>Architecture Diagrams, Recommendations</t>
+  </si>
+  <si>
+    <t>RFP content, RFP requirements, Selection Criteria</t>
+  </si>
+  <si>
+    <t>SAD/HLD, Architecture Diagrams</t>
+  </si>
+  <si>
+    <t>LLD Guidance/Review, Architecture Diagrams</t>
+  </si>
+  <si>
+    <t>Low-Level Design (LLD)</t>
+  </si>
+  <si>
+    <t>High-Level Design (HLD)</t>
+  </si>
+  <si>
+    <t>Proof-of-Concept (PoC)</t>
+  </si>
+  <si>
+    <t>Consultation Services</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Progression from Low &gt; Med. &gt; High - should </t>
+      <t xml:space="preserve">Progression from Low &gt; Med &gt; High - should </t>
     </r>
     <r>
       <rPr>
@@ -190,69 +248,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> linear progression of estimated increase of complexity/effort.</t>
+      <t xml:space="preserve"> linear progression of estimated increase of complexity/effort. Sometimes, a power curve may be more appropriate.</t>
     </r>
   </si>
   <si>
-    <t>A.01</t>
-  </si>
-  <si>
-    <t>A.02</t>
-  </si>
-  <si>
-    <t>A.03</t>
-  </si>
-  <si>
-    <t>RFP Support</t>
-  </si>
-  <si>
-    <t>RPF Support</t>
-  </si>
-  <si>
-    <t>Solution Research - Identify Potential Vendors</t>
-  </si>
-  <si>
-    <t>Evaluate Vendors - Identify Candidates Shortlist</t>
-  </si>
-  <si>
-    <t>Prepare Detailed RFP Evaluation Questions</t>
-  </si>
-  <si>
-    <t>Review Vendor RFP Responses</t>
-  </si>
-  <si>
-    <t>Conduct Hands-on an In-Depth Vendor Evaluation</t>
-  </si>
-  <si>
-    <t>Low Est. [small]
-(hours, effort)</t>
-  </si>
-  <si>
-    <t>Architecture Guidance, Findings</t>
-  </si>
-  <si>
-    <t>Architecture Diagrams, Recommendations</t>
-  </si>
-  <si>
-    <t>RFP content, RFP requirements, Selection Criteria</t>
-  </si>
-  <si>
-    <t>SAD/HLD, Architecture Diagrams</t>
-  </si>
-  <si>
-    <t>LLD Guidance/Review, Architecture Diagrams</t>
-  </si>
-  <si>
-    <t>Low-Level Design (LLD)</t>
-  </si>
-  <si>
-    <t>High-Level Design (HLD)</t>
-  </si>
-  <si>
-    <t>Proof-of-Concept (PoC)</t>
-  </si>
-  <si>
-    <t>Consultation Services</t>
+    <t>As we collect metrics for estimated vs. actual - we will monitor and adjust our estimate ranges. 
+Until then - it may be prudent to add a standard buffer to the estimates (e.g. 20%-25%)</t>
+  </si>
+  <si>
+    <t>Summary Report, with Recommendations</t>
+  </si>
+  <si>
+    <t>RFP Vendor Questions</t>
   </si>
 </sst>
 </file>
@@ -730,7 +737,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
@@ -738,18 +745,18 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -762,14 +769,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDDE09-B20D-4668-8508-18B9F81EF439}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="23.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="49.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="6" customWidth="1"/>
@@ -782,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -805,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
@@ -818,10 +825,10 @@
         <v>1.01</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -833,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,10 +848,10 @@
         <v>1.02</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <v>16</v>
@@ -856,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,10 +871,10 @@
         <v>1.03</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8">
         <v>8</v>
@@ -879,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,10 +894,10 @@
         <v>1.04</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8">
         <v>24</v>
@@ -902,7 +909,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,10 +917,10 @@
         <v>1.05</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8">
         <v>16</v>
@@ -925,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,10 +940,10 @@
         <v>1.06</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -948,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,10 +963,10 @@
         <v>1.07</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -971,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1002,10 +1009,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8">
         <v>24</v>
@@ -1017,7 +1024,7 @@
         <v>96</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,10 +1032,10 @@
         <v>2.02</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="8">
         <v>32</v>
@@ -1040,7 +1047,7 @@
         <v>128</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,10 +1055,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8">
         <v>40</v>
@@ -1063,7 +1070,7 @@
         <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -1094,10 +1101,10 @@
         <v>3.01</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8">
         <v>16</v>
@@ -1109,7 +1116,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,10 +1124,10 @@
         <v>3.02</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="8">
         <v>24</v>
@@ -1132,7 +1139,7 @@
         <v>96</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,10 +1147,10 @@
         <v>3.03</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="8">
         <v>24</v>
@@ -1155,7 +1162,7 @@
         <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,10 +1170,10 @@
         <v>3.04</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="8">
         <v>24</v>
@@ -1178,7 +1185,7 @@
         <v>192</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,10 +1193,10 @@
         <v>3.05</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8">
         <v>24</v>
@@ -1201,7 +1208,7 @@
         <v>192</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,10 +1216,10 @@
         <v>3.06</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="8">
         <v>24</v>
@@ -1224,7 +1231,7 @@
         <v>96</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -1255,10 +1262,10 @@
         <v>4.01</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8">
         <v>24</v>
@@ -1270,7 +1277,7 @@
         <v>96</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,10 +1285,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="8">
         <v>48</v>
@@ -1293,7 +1300,7 @@
         <v>192</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,10 +1308,10 @@
         <v>4.03</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="8">
         <v>48</v>
@@ -1316,7 +1323,7 @@
         <v>192</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,10 +1331,10 @@
         <v>4.04</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="8">
         <v>48</v>
@@ -1339,7 +1346,7 @@
         <v>192</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1354,10 @@
         <v>4.05</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="8">
         <v>48</v>
@@ -1362,7 +1369,7 @@
         <v>192</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,10 +1377,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="8">
         <v>48</v>
@@ -1385,7 +1392,7 @@
         <v>192</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -1416,70 +1423,115 @@
         <v>5.01</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>24</v>
+      </c>
+      <c r="F37" s="8">
+        <v>48</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>5.0199999999999996</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="D38" s="8">
+        <v>24</v>
+      </c>
+      <c r="E38" s="8">
+        <v>48</v>
+      </c>
+      <c r="F38" s="8">
+        <v>96</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>5.03</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D39" s="8">
+        <v>24</v>
+      </c>
+      <c r="E39" s="8">
+        <v>48</v>
+      </c>
+      <c r="F39" s="8">
+        <v>96</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>5.04</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D40" s="8">
+        <v>48</v>
+      </c>
+      <c r="E40" s="8">
+        <v>48</v>
+      </c>
+      <c r="F40" s="8">
+        <v>96</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>5.05</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D41" s="8">
+        <v>48</v>
+      </c>
+      <c r="E41" s="8">
+        <v>96</v>
+      </c>
+      <c r="F41" s="8">
+        <v>160</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
@@ -2558,6 +2610,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B54ADC23E309741A4A8D60B131C4BBE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4821700829932f7c0b84d0ad1d0e6232">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="652bd411-f293-45b0-a1c4-9d422fa792b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2099c02a5bb6480b223ff07cbf49c8ec" ns2:_="">
     <xsd:import namespace="652bd411-f293-45b0-a1c4-9d422fa792b8"/>
@@ -2703,22 +2770,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E4BF551-806E-4F3C-A10E-5542F55C1212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="652bd411-f293-45b0-a1c4-9d422fa792b8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6877174-B877-4985-ADE6-CCA0BE47FE9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBD40512-4FCB-402C-BDBE-BD2DAB3CEE00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2734,28 +2810,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E4BF551-806E-4F3C-A10E-5542F55C1212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="652bd411-f293-45b0-a1c4-9d422fa792b8"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6877174-B877-4985-ADE6-CCA0BE47FE9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>